--- a/Cobertura de Carteira.xlsx
+++ b/Cobertura de Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493A2D8-39D8-4329-ADD5-337C2B9859C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB75F49-D673-4C47-8BFE-F44264ACB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Glauciane</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t>Alexandre</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Meta Cob. Coleção</t>
+  </si>
+  <si>
+    <t>Felipe</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,12 +244,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,8 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,11 +357,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,7 +372,67 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -398,38 +451,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -464,80 +485,10 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -574,6 +525,108 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -693,12 +746,8 @@
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -747,7 +796,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </left>
@@ -760,34 +815,16 @@
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </left>
@@ -810,6 +847,22 @@
         <right style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -819,36 +872,6 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,7 +960,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>29/06/2025</a:t>
+            <a:t>23/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1411,7 +1434,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>29,71%</a:t>
+            <a:t>44,27%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2291,6 +2314,7 @@
       <sheetName val="NOVA CARTEIRA"/>
       <sheetName val="ATENDIDOS 2025"/>
       <sheetName val="Ausentes (3)"/>
+      <sheetName val="Planilha7"/>
       <sheetName val="cobertura"/>
       <sheetName val="Ausentes"/>
       <sheetName val="Planilha6"/>
@@ -2314,40 +2338,41 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7355</v>
+            <v>7069</v>
           </cell>
           <cell r="E23">
-            <v>1233</v>
+            <v>1902</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2370,26 +2395,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="15">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="13" totalsRowDxfId="9">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="12" totalsRowDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="10" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2697,8 +2722,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,7 +2739,7 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2723,91 +2748,95 @@
       <c r="G1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="26"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="26"/>
+      <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45837</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.8181576851606053E-2</v>
+        <v>4.5699295871876294E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.4555349084151846E-2</v>
+        <v>4.0867044042523816E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.3626227767454207E-2</v>
-      </c>
-      <c r="J5" s="28">
+        <v>2.4989645174651388E-2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.12948317847601484</v>
+        <v>-0.17887461768518437</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2">
         <f>SUBTOTAL(9,Tabela1[Carteira])</f>
-        <v>7534</v>
+        <v>7243</v>
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7356</v>
+        <v>7208</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1233</v>
-      </c>
-      <c r="J6" s="28">
+        <v>1902</v>
+      </c>
+      <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.16761827079934746</v>
+        <v>0.26387347391786903</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
-        <v>8.1488000000000014</v>
+        <v>8.7073999999999998</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
+        <v>5766.4000000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2825,7 +2854,7 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2841,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>9</v>
@@ -2859,17 +2888,17 @@
         <v>6</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="29" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="11" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>George</v>
       </c>
@@ -2877,36 +2906,35 @@
         <v>9902</v>
       </c>
       <c r="D9" s="8">
-        <f>252-27</f>
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14">
         <v>8</v>
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>0.15981735159817351</v>
+        <v>0.20143884892086331</v>
       </c>
       <c r="K9" s="10">
-        <v>14.92</v>
+        <v>12.48</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>175.20000000000002</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,32 +2952,32 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="14">
         <v>6</v>
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I10" s="8">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
+        <v>0.36746987951807231</v>
       </c>
       <c r="K10" s="10">
-        <v>12.53</v>
+        <v>12.25</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>128</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2967,32 +2995,32 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.22857142857142856</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K11" s="10">
-        <v>12.53</v>
+        <v>11.54</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>84</v>
+        <v>85.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,32 +3038,32 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G12" s="14">
         <v>2</v>
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I12" s="8">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.32972972972972975</v>
+        <v>0.49222797927461137</v>
       </c>
       <c r="K12" s="10">
-        <v>7.87</v>
+        <v>8.4</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>148</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,29 +3084,29 @@
         <v>7</v>
       </c>
       <c r="F13" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.11347517730496454</v>
+        <v>0.20979020979020979</v>
       </c>
       <c r="K13" s="10">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,32 +3125,32 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
         <v>3</v>
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I14" s="8">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.27049180327868855</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="K14" s="10">
-        <v>12.4</v>
+        <v>11.47</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,29 +3171,29 @@
         <v>1</v>
       </c>
       <c r="F15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I15" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.13013698630136986</v>
+        <v>0.27891156462585032</v>
       </c>
       <c r="K15" s="10">
-        <v>11.9</v>
+        <v>10.32</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116.80000000000001</v>
+        <v>117.60000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,32 +3211,32 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I16" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.28846153846153844</v>
+        <v>0.30252100840336132</v>
       </c>
       <c r="K16" s="10">
-        <v>4.76</v>
+        <v>5.14</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>83.2</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3226,32 +3254,32 @@
         <v>64</v>
       </c>
       <c r="E17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="14">
         <v>3</v>
       </c>
       <c r="H17" s="8">
         <f>D17-E17+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I17" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="K17" s="10">
-        <v>6.17</v>
+        <v>6.79</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>51.2</v>
+        <v>52.800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,32 +3297,32 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14">
         <v>6</v>
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18" s="8">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.26339285714285715</v>
+        <v>0.36444444444444446</v>
       </c>
       <c r="K18" s="10">
-        <v>10.050000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>179.20000000000002</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3312,32 +3340,32 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.32258064516129031</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="K19" s="10">
-        <v>4.4800000000000004</v>
+        <v>6.44</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>74.400000000000006</v>
+        <v>73.600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,33 +3386,33 @@
         <v>3</v>
       </c>
       <c r="F20" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="14">
         <v>9</v>
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I20" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.16470588235294117</v>
+        <v>0.21839080459770116</v>
       </c>
       <c r="K20" s="10">
-        <v>10</v>
+        <v>10.28</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>68</v>
+        <v>69.600000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="8">
         <v>61</v>
       </c>
       <c r="B21" s="8" t="str">
@@ -3395,8 +3423,7 @@
         <v>9915</v>
       </c>
       <c r="D21" s="8">
-        <f>167-14</f>
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -3409,22 +3436,22 @@
       </c>
       <c r="H21" s="8">
         <f>D21-E21+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.36774193548387096</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="K21" s="10">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
+        <v>76.800000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,29 +3472,29 @@
         <v>8</v>
       </c>
       <c r="F22" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="14">
         <v>4</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I22" s="8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.1038961038961039</v>
+        <v>0.17197452229299362</v>
       </c>
       <c r="K22" s="10">
-        <v>4.82</v>
+        <v>9.75</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>123.2</v>
+        <v>125.60000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3486,7 +3513,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3496,22 +3523,22 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I23" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.18064516129032257</v>
+        <v>0.33986928104575165</v>
       </c>
       <c r="K23" s="10">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,32 +3556,32 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I24" s="8">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.21973094170403587</v>
+        <v>0.30131004366812225</v>
       </c>
       <c r="K24" s="10">
-        <v>9.52</v>
+        <v>10.72</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>178.4</v>
+        <v>183.20000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3599,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3582,22 +3609,22 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I25" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.34343434343434343</v>
       </c>
       <c r="K25" s="10">
-        <v>7.29</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3643,10 @@
         <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="14">
         <v>2</v>
@@ -3629,17 +3656,17 @@
         <v>88</v>
       </c>
       <c r="I26" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
+        <v>0.25</v>
       </c>
       <c r="K26" s="10">
-        <v>7.29</v>
+        <v>7.77</v>
       </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>70.400000000000006</v>
       </c>
@@ -3662,29 +3689,29 @@
         <v>1</v>
       </c>
       <c r="F27" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I27" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.2032520325203252</v>
+        <v>0.32539682539682541</v>
       </c>
       <c r="K27" s="10">
-        <v>8.33</v>
+        <v>7.47</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>100.80000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,17 +3741,17 @@
         <v>173</v>
       </c>
       <c r="I28" s="8">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.30057803468208094</v>
+        <v>0.36416184971098264</v>
       </c>
       <c r="K28" s="10">
-        <v>7.33</v>
+        <v>9.16</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>138.4</v>
       </c>
@@ -3744,32 +3771,32 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I29" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>8.943089430894309E-2</v>
+        <v>0.20161290322580644</v>
       </c>
       <c r="K29" s="10">
-        <v>11</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="29">
+      <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,32 +3814,32 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I30" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>3.968253968253968E-2</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="K30" s="10">
-        <v>7.5</v>
+        <v>8.43</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>201.60000000000002</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3830,7 +3857,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3840,22 +3867,22 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I31" s="8">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="K31" s="10">
-        <v>6.54</v>
+        <v>8.09</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>106.4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,32 +3900,32 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I32" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.0090090090090086E-2</v>
+        <v>0.18584070796460178</v>
       </c>
       <c r="K32" s="10">
-        <v>16.13</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88.800000000000011</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,32 +3943,32 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14">
         <v>5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I33" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>3.1372549019607843E-2</v>
+        <v>0.16858237547892721</v>
       </c>
       <c r="K33" s="10">
-        <v>5.88</v>
+        <v>6.95</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="29">
+      <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,32 +3986,32 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="14">
         <v>4</v>
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I34" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.22857142857142856</v>
+        <v>0.27932960893854747</v>
       </c>
       <c r="K34" s="10">
-        <v>6.59</v>
+        <v>6.89</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="29">
+      <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>140</v>
+        <v>143.20000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,32 +4029,32 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.31858407079646017</v>
+        <v>0.52586206896551724</v>
       </c>
       <c r="K35" s="10">
-        <v>8.8699999999999992</v>
+        <v>8.84</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="29">
+      <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>90.4</v>
+        <v>92.800000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4045,32 +4072,32 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="14">
         <v>4</v>
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I36" s="8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.14772727272727273</v>
+        <v>0.21722846441947566</v>
       </c>
       <c r="K36" s="10">
-        <v>10.37</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="29">
+      <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>211.20000000000002</v>
+        <v>213.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,29 +4118,29 @@
         <v>5</v>
       </c>
       <c r="F37" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G37" s="14">
         <v>5</v>
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I37" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>8.771929824561403E-2</v>
+        <v>0.25142857142857145</v>
       </c>
       <c r="K37" s="10">
-        <v>4.93</v>
+        <v>7.62</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="29">
+      <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>136.80000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,35 +4154,35 @@
         <v>9907</v>
       </c>
       <c r="D38" s="8">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E38" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="I38" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>8.4033613445378158E-2</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="K38" s="10">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="M38" s="29">
+      <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,32 +4200,32 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="14">
         <v>5</v>
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I39" s="8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.18867924528301888</v>
+        <v>0.32121212121212123</v>
       </c>
       <c r="K39" s="10">
-        <v>6.23</v>
+        <v>8.5</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="29">
+      <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>127.2</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4213,35 +4240,35 @@
         <v>9902</v>
       </c>
       <c r="D40" s="8">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F40" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="I40" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>5.921052631578947E-2</v>
+        <v>0.12322274881516587</v>
       </c>
       <c r="K40" s="10">
-        <v>7.69</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="29">
+      <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>243.20000000000002</v>
+        <v>168.8</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4286,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
@@ -4269,22 +4296,22 @@
       </c>
       <c r="H41" s="8">
         <f>D41-E41+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.20634920634920634</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="K41" s="10">
-        <v>8.8699999999999992</v>
+        <v>9.92</v>
       </c>
       <c r="L41" s="10"/>
-      <c r="M41" s="29">
+      <c r="M41" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100.80000000000001</v>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,29 +4333,29 @@
         <v>3</v>
       </c>
       <c r="F42" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="14">
         <v>6</v>
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.17721518987341772</v>
       </c>
       <c r="K42" s="10">
-        <v>8.17</v>
+        <v>10.5</v>
       </c>
       <c r="L42" s="10"/>
-      <c r="M42" s="29">
+      <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,32 +4372,32 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.10240963855421686</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K43" s="10">
-        <v>6.65</v>
+        <v>7.71</v>
       </c>
       <c r="L43" s="10"/>
-      <c r="M43" s="29">
+      <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,29 +4418,29 @@
         <v>14</v>
       </c>
       <c r="F44" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I44" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.1941747572815534</v>
+        <v>0.30476190476190479</v>
       </c>
       <c r="K44" s="10">
-        <v>4.62</v>
+        <v>4.78</v>
       </c>
       <c r="L44" s="10"/>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>164.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,7 +4448,7 @@
         <v>322</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="8">
         <v>9907</v>
@@ -4434,29 +4461,29 @@
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" s="14">
         <v>0</v>
       </c>
       <c r="H45" s="8">
         <f>D45-E45+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I45" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
+        <v>0.14685314685314685</v>
       </c>
       <c r="K45" s="10">
-        <v>9.75</v>
+        <v>8.39</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="29">
+      <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,7 +4501,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4484,22 +4511,22 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.13861386138613863</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="K46" s="10">
-        <v>5.92</v>
+        <v>7.71</v>
       </c>
       <c r="L46" s="10"/>
-      <c r="M46" s="29">
+      <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4516,7 +4543,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -4526,22 +4553,22 @@
       </c>
       <c r="H47" s="8">
         <f>D47-E47+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I47" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>6.1728395061728392E-2</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="K47" s="10">
-        <v>3.75</v>
+        <v>6.53</v>
       </c>
       <c r="L47" s="10"/>
-      <c r="M47" s="29">
+      <c r="M47" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,7 +4585,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4568,22 +4595,22 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I48" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.10169491525423729</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="K48" s="10">
-        <v>7.3</v>
+        <v>6.19</v>
       </c>
       <c r="L48" s="10"/>
-      <c r="M48" s="29">
+      <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>94.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4604,29 +4631,29 @@
         <v>1</v>
       </c>
       <c r="F49" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49" s="14">
         <v>2</v>
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I49" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.25423728813559321</v>
+        <v>0.35245901639344263</v>
       </c>
       <c r="K49" s="10">
-        <v>5.19</v>
+        <v>9.24</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="29">
+      <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>94.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,32 +4671,32 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G50" s="14">
         <v>2</v>
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I50" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
+        <v>0.30985915492957744</v>
       </c>
       <c r="K50" s="10">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="L50" s="10"/>
-      <c r="M50" s="29">
+      <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>110.4</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,29 +4718,29 @@
         <v>1</v>
       </c>
       <c r="F51" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G51" s="14">
         <v>1</v>
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I51" s="8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>3.6363636363636362E-2</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="K51" s="10">
-        <v>15</v>
+        <v>11.44</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="M51" s="29">
+      <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,32 +4759,32 @@
         <v>78</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
       </c>
       <c r="H52" s="8">
         <f>D52-E52+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I52" s="8">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.19230769230769232</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="K52" s="10">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L52" s="10"/>
-      <c r="M52" s="29">
+      <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,7 +4792,7 @@
         <v>308</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="8">
         <v>9914</v>
@@ -4787,17 +4814,17 @@
         <v>132</v>
       </c>
       <c r="I53" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.17424242424242425</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="K53" s="10">
-        <v>7.91</v>
+        <v>7.73</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="29">
+      <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>105.60000000000001</v>
       </c>
@@ -4812,9 +4839,11 @@
       <c r="C54" s="8">
         <v>9917</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8">
+        <v>139</v>
+      </c>
       <c r="E54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -4824,30 +4853,30 @@
       </c>
       <c r="H54" s="8">
         <f>D54-E54+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I54" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>6</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="K54" s="10">
-        <v>6.67</v>
+        <v>6.23</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="29">
+      <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>0.8</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C55" s="8">
         <v>9917</v>
@@ -4856,30 +4885,30 @@
         <v>101</v>
       </c>
       <c r="E55" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="8">
+        <v>4</v>
+      </c>
+      <c r="G55" s="14">
         <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <v>4</v>
       </c>
       <c r="H55" s="8">
         <f>D55-E55+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I55" s="8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="29">
+      <c r="M55" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>79.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4887,7 +4916,7 @@
         <v>315</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="8">
         <v>9907</v>
@@ -4897,32 +4926,32 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I56" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.33057851239669422</v>
+        <v>0.49180327868852458</v>
       </c>
       <c r="K56" s="10">
-        <v>4.58</v>
+        <v>5.68</v>
       </c>
       <c r="L56" s="10"/>
-      <c r="M56" s="29">
+      <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,84 +4959,83 @@
         <v>316</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="8">
         <v>9902</v>
       </c>
       <c r="D57" s="8">
-        <f>85-49</f>
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E57" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="8">
         <v>20</v>
       </c>
       <c r="G57" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I57" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.28846153846153844</v>
+        <v>0.20202020202020202</v>
       </c>
       <c r="K57" s="10">
-        <v>6.36</v>
+        <v>8.25</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="29">
+      <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>41.6</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="8">
         <v>317</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="8">
         <v>9902</v>
       </c>
       <c r="D58" s="8">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="E58" s="8">
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G58" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H58" s="8">
         <f>D58-E58+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.10740740740740741</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="K58" s="10">
-        <v>9.56</v>
+        <v>11.07</v>
       </c>
       <c r="L58" s="10"/>
-      <c r="M58" s="29">
+      <c r="M58" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>216</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5015,7 +5043,7 @@
         <v>320</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="8">
         <v>9915</v>
@@ -5030,34 +5058,34 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>141</v>
       </c>
       <c r="I59" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J59" s="12">
         <f t="shared" si="0"/>
-        <v>0.12056737588652482</v>
+        <v>0.15602836879432624</v>
       </c>
       <c r="K59" s="10">
-        <v>5.4</v>
+        <v>7.91</v>
       </c>
       <c r="L59" s="10"/>
-      <c r="M59" s="29">
+      <c r="M59" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>112.80000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="30"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5066,17 +5094,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.29</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0.4427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
-      <formula>0.1499</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0.23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
-      <formula>0.15</formula>
-      <formula>0.2999</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0.2299</formula>
+      <formula>0.4426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5135,45 +5163,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="21">
         <v>45597</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>21</v>
       </c>
       <c r="D2">
-        <f>SUM(B2:B8)</f>
-        <v>138</v>
+        <f>SUM(B8:B13)</f>
+        <v>131</v>
+      </c>
+      <c r="E2" s="23">
+        <f>D1/D2</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>45627</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>16</v>
       </c>
-      <c r="D3" s="25">
-        <f>D1/D2</f>
-        <v>7.246376811594203E-3</v>
+      <c r="D3" s="23">
+        <f>E2*D7</f>
+        <v>0.4427480916030534</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>20</v>
       </c>
       <c r="H4">
@@ -5181,127 +5213,131 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>20</v>
       </c>
       <c r="D5">
-        <f>SUM(B8)</f>
-        <v>21</v>
+        <f>SUM(B8:B9)</f>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>19</v>
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>21</v>
       </c>
-      <c r="D9" s="25">
-        <f>D7*D3</f>
-        <v>0.29710144927536231</v>
+      <c r="D9" s="23">
+        <f>D7*E2</f>
+        <v>0.4427480916030534</v>
+      </c>
+      <c r="E9" s="31">
+        <f>D9</f>
+        <v>0.4427480916030534</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2185.18115942029</v>
+        <v>3129.7862595419842</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>952.18115942028999</v>
+        <v>1227.7862595419842</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45836</v>
+        <v>45860</v>
       </c>
     </row>
   </sheetData>
